--- a/Client/test.xlsx
+++ b/Client/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pstsy\Documents\UserDocuments\VT\SysForL\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF027DF-A54B-4EF2-A621-471C1C1B701B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227224A-C5D0-4221-91FE-16AB823F1386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ФИО</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Шифр</t>
   </si>
   <si>
-    <t>Средний балл</t>
-  </si>
-  <si>
     <t>Цынгалёв П.С.</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>normchel3</t>
+  </si>
+  <si>
+    <t>Гандон</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>да</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,73 +414,70 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4.5999999999999996</v>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>4.5999999999999996</v>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>4.5999999999999996</v>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
